--- a/backend/data/normal/bank_acc/stock.xlsx
+++ b/backend/data/normal/bank_acc/stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\data\data\bank_acc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\data\normal\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1921DD5-9F09-4587-ACF6-9BAAAB145E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED0B45-E2A9-41A7-8E4E-DD33592F1569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,10 +417,11 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="F2">
-        <v>45000</v>
+        <f>E2</f>
+        <v>55000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -437,11 +438,12 @@
         <v>192</v>
       </c>
       <c r="E3">
-        <v>45000</v>
+        <f>F2</f>
+        <v>55000</v>
       </c>
       <c r="F3">
         <f>E3-C3*D3</f>
-        <v>43080</v>
+        <v>53080</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -459,11 +461,11 @@
       </c>
       <c r="E4">
         <f>F3</f>
-        <v>43080</v>
+        <v>53080</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F19" si="0">E4-C4*D4</f>
-        <v>38376.6</v>
+        <v>48376.6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -481,11 +483,11 @@
       </c>
       <c r="E5">
         <f>F4</f>
-        <v>38376.6</v>
+        <v>48376.6</v>
       </c>
       <c r="F5">
         <f>E5-C5*D5</f>
-        <v>31366.6</v>
+        <v>41366.6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -503,11 +505,11 @@
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E19" si="1">F5</f>
-        <v>31366.6</v>
+        <v>41366.6</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>27707.199999999997</v>
+        <v>37707.199999999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -525,11 +527,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>27707.199999999997</v>
+        <v>37707.199999999997</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>18357.699999999997</v>
+        <v>28357.699999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,11 +549,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>18357.699999999997</v>
+        <v>28357.699999999997</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>14232.699999999997</v>
+        <v>24232.699999999997</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,11 +571,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>14232.699999999997</v>
+        <v>24232.699999999997</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>3970.3299999999981</v>
+        <v>13970.329999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,11 +593,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>3970.3299999999981</v>
+        <v>13970.329999999998</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>-2380.550000000002</v>
+        <v>7619.449999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,11 +615,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>-2380.550000000002</v>
+        <v>7619.449999999998</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>-4729.8900000000021</v>
+        <v>5270.1099999999979</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -635,11 +637,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>-4729.8900000000021</v>
+        <v>5270.1099999999979</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>-9634.0200000000023</v>
+        <v>365.97999999999774</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,11 +659,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>-9634.0200000000023</v>
+        <v>365.97999999999774</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>-1931.0900000000029</v>
+        <v>8068.9099999999971</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,11 +681,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>-1931.0900000000029</v>
+        <v>8068.9099999999971</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1451.4099999999971</v>
+        <v>11451.409999999996</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -701,11 +703,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>1451.4099999999971</v>
+        <v>11451.409999999996</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>12569.409999999996</v>
+        <v>22569.409999999996</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,11 +725,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>12569.409999999996</v>
+        <v>22569.409999999996</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>15491.229999999996</v>
+        <v>25491.229999999996</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,11 +747,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>15491.229999999996</v>
+        <v>25491.229999999996</v>
       </c>
       <c r="F17">
         <f>E17-C17*D17</f>
-        <v>13904.809999999996</v>
+        <v>23904.809999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,11 +769,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>13904.809999999996</v>
+        <v>23904.809999999998</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>17664.809999999998</v>
+        <v>27664.809999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,11 +791,11 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>17664.809999999998</v>
+        <v>27664.809999999998</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>15645.689999999997</v>
+        <v>25645.69</v>
       </c>
     </row>
   </sheetData>
